--- a/Output_testing/R1_201907/Country/HKD/MN/SOUTH AFRICA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SOUTH AFRICA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>4162.826589</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>56.86585348759674</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>5223.798648</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>58.36195086455832</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>7074.347199</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>66.45242829965785</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>3821.583847</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>68.10217175217022</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0.1081655802501524</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>773.568755</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>10.56725437486453</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1329.928565</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>14.85838769716351</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1235.621918</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.60673551942537</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>660.827951</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.77622169744238</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>7.8336383818149</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>87.66961000000001</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.197601459246072</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>87.235254</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.9746201855529988</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>176.262704</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.655712445258486</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>84.68344500000001</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.509093283530267</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-19.75266233260859</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>128.10401</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.749951315071133</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>143.131237</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.599108002406576</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>193.111304</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.813978692582039</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>83.13613599999999</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.481519610547952</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-29.71587501271814</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>58.677389</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.8015562826291731</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>257.010086</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.871398961093324</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>185.813482</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.745427068021229</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>64.213503</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.144310627528801</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-55.80164875842033</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>190.502906</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.602344851496627</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>159.841905</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.785804935126856</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>137.530418</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.291883192057474</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>62.781269</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.118787637647559</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-16.22331530333966</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>117.062678</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.599122364021615</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>137.454977</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.535691008464573</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>105.179979</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.988001410793779</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>55.822463</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.9947788966712072</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-28.67733715823313</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>58.126218</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.7940270693260214</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>84.08647999999999</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.9394410743631071</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>90.79962</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.8529204275610193</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>51.347238</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9150285748723391</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>12.27744091275909</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>134.370178</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.835549642024806</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>119.300883</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.332867658367758</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>93.01291399999999</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.873710863300709</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>49.109782</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8751562028662819</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-20.55142377625111</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>120.925555</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.651890787789989</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>119.391763</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.333882998822468</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>106.212639</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9977016365075558</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>45.80296</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.816227295686961</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-30.60182390862965</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1488.598909</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>20.3348483659333</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1289.512512</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>14.40684661408051</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1247.839484</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>11.72150044483448</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>632.236161</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.26670442103602</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-14.6447488664615</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,463 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>12.5283</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>21.37559366269773</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>6.489</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>25.46871122316105</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>7.70315</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>23.61032003758697</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>5.5404</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>41.8203270309719</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>129.0131239020357</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.082837</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>3.318918639587774</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.988225</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.00762033628513</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.8712530000000001</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.576435886707705</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>16.921725</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>28.87158813820819</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.25474</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.924735817560348</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>2.697566</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>8.268097672057968</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.8518869999999999</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.430256467661823</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>139.3781524411662</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.6639969999999999</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.132901516187376</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.688426</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.702006933659404</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.695875</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.132871806489012</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0.718602</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.42418790071303</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>5.510430615265349</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD EQUIPMENT OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.406416</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.399605448202604</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.902631</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>3.542741297591784</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>1.941205</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.949834977712237</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>0.654861</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.94305486604384</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-32.56259879616709</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>2.054908</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.506052570757953</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>2.644458</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>10.37924751791925</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>7.437215</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>22.79522355638179</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>0.649439</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>4.90212825187123</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-80.28072321129815</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1.141876</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.948251350078353</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.6859189999999999</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.692167195789707</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.224326</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>3.752585460537404</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.296139832246171</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-37.16304402570024</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>3.12453</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>5.331025252181775</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.309622</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>5.140142476421425</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>1.04305</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3.196970630872447</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.945055605319494</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-21.87626397126256</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>1.453071</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.479207494955409</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>0.986216</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>3.870804516514255</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>1.073286</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>3.289644619650606</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.910024174781853</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-36.58201569974404</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>19.315479</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>32.9557745667306</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>10.517309</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>41.27944302138277</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>7.727689</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>23.68553259912379</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>0.761073</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>5.74476964739782</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-87.35018218311922</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1756,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>4162.826589</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>57.32481882979432</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>5223.798648</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>58.52855353875146</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>7074.347199</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>66.65671253649133</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>3821.583847</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>68.2633323054564</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>0.1081655802501524</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>773.435353</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>10.65070584598474</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1329.928565</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>14.90080312515855</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1235.621918</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.64241627885559</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>660.827951</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.80408956649195</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>7.8336383818149</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>87.66961000000001</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.207267322498772</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>87.235254</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.9774023805761325</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>176.262704</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.660802341323234</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>84.68344500000001</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.512664481074734</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-19.75266233260859</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>124.97948</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.721048401913603</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>141.821615</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.588999604656986</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>192.068254</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.809727178229749</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>82.74597199999999</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.478056222162484</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-29.74911521389269</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>58.677389</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.8080256580273242</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>257.010086</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.879595786910606</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>185.813482</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.750792759624421</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>64.213503</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.147018584252044</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-55.80164875842033</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>190.413429</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.622116268073281</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>159.678477</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.789071692810927</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>137.405122</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.294674047025879</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>62.781269</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.121435195428083</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-16.09787889354504</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>116.701278</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.607052197714177</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>137.418291</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.539663823963919</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>105.153477</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.9907889578267153</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>55.816879</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.9970332490340492</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-28.66638295207587</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>58.126218</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.8004356763060758</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>84.08647999999999</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.9421228454985338</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>90.79962</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.8555424265320468</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>51.347238</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9171939465132867</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>12.27744091275909</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>134.364052</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.850280037724882</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>119.278774</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.336424808940231</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>93.009458</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.8763642115214854</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>49.109782</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.8772272184335829</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-20.54698153391051</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>120.728899</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.662515147996605</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>119.361498</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.337351666269388</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>106.155629</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.000231547496517</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>45.787825</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.8178885087063443</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-30.56477855663294</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1433.900198</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>19.74573461396621</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1265.596301</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.18001072646327</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1216.468599</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>11.46194771507303</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>619.398941</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.06406072244705</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-14.6673384124787</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2214,441 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>4086.619772</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>46.95930092403621</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4143.735347</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>45.25219541858378</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>3392.351686</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>43.0778704452764</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2916.833409</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>59.03705804931005</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>87.94544258363455</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1898.102008</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>21.81106840154284</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2534.151571</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>27.6745285372114</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>2008.640572</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>25.50677710947151</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>913.1408740000001</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.48208081380205</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>7.307069010278822</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>231.685268</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>2.662292757016979</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>231.48058</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.52791348012871</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>409.389234</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>5.198640358169206</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>198.37842</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>4.015203014726032</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-24.81306747318376</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>201.337859</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.313571028301229</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>303.525353</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.314687700408929</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>308.95631</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.923290132434298</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>194.658318</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.939907704049154</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>6.51204430667931</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>364.648892</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>4.190176235227294</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>376.282086</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.109236971543576</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>393.5631</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.997671763752789</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>126.687347</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.564167098427556</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-54.63604626498293</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>256.902867</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.952067897864772</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>201.446489</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.199922322069954</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>220.763121</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.803366515559107</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>101.741617</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.059262531184094</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-6.721491688690618</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>370.088465</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>4.252682306175081</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>311.22823</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.398807960536467</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>286.803106</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.641977066988236</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>81.393444</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.647413069061315</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-56.46332728895083</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>115.492794</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.327126371081367</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>110.323511</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.204802107511688</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>152.196955</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.932677185774412</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>67.81291299999999</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.372541492743788</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-10.78945754808417</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ORES AND CONCENTRATES OF BASE METALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>10.745926</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.1364574345145085</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>21.90403</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.4433401944155492</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>880.1381785313162</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>IRON AND STEEL BARS, RODS, ANGLES, SHAPES AND SECTIONS (INCLUDING SHEET PILING)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>11.965103</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.137490861325987</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>39.078854</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.4267656570351679</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>33.0024</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.4190818768733019</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>21.61383</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.4374665116083492</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-27.47496886942405</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1165.628456</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>13.39422321742824</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>905.729886</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>9.891139844970319</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>658.516529</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>8.362190111186221</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>296.517982</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>6.001559520672055</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-29.93409357785146</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
